--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="60">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -174,6 +174,27 @@
   </si>
   <si>
     <t xml:space="preserve">0,1,2,3,4,5,6,7,8,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProgressBar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 %</t>
   </si>
 </sst>
 </file>
@@ -1508,6 +1529,29 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7"/>
       <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1672,6 +1716,40 @@
         <v>50</v>
       </c>
     </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
